--- a/docs/Lua API.xlsx
+++ b/docs/Lua API.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>Protheus Lua API</t>
   </si>
@@ -181,6 +181,69 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>SpriteEntity</t>
+  </si>
+  <si>
+    <t>setSprite</t>
+  </si>
+  <si>
+    <t>getSpriteName</t>
+  </si>
+  <si>
+    <t>sprite_name(string)</t>
+  </si>
+  <si>
+    <t>GUIEntity</t>
+  </si>
+  <si>
+    <t>bindCallback</t>
+  </si>
+  <si>
+    <t>func(string)</t>
+  </si>
+  <si>
+    <t>args(Uchar)</t>
+  </si>
+  <si>
+    <t>returns(Uchar)</t>
+  </si>
+  <si>
+    <t>position_x(int)</t>
+  </si>
+  <si>
+    <t>position_y(int)</t>
+  </si>
+  <si>
+    <t>width(int)</t>
+  </si>
+  <si>
+    <t>height(int)</t>
+  </si>
+  <si>
+    <t>getParent</t>
+  </si>
+  <si>
+    <t>parent(GUIEntity)</t>
+  </si>
+  <si>
+    <t>setParent</t>
+  </si>
+  <si>
+    <t>ID(int)</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>disable</t>
+  </si>
+  <si>
+    <t>isEnabled</t>
+  </si>
+  <si>
+    <t>enabled(boolean)</t>
   </si>
 </sst>
 </file>
@@ -527,19 +590,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N27"/>
+  <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -823,6 +889,161 @@
       </c>
       <c r="B27" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Lua API.xlsx
+++ b/docs/Lua API.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
-    <sheet name="Globals" sheetId="2" r:id="rId2"/>
+    <sheet name="GUI Functions" sheetId="3" r:id="rId2"/>
+    <sheet name="Globals" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
   <si>
     <t>Protheus Lua API</t>
   </si>
@@ -244,6 +245,42 @@
   </si>
   <si>
     <t>enabled(boolean)</t>
+  </si>
+  <si>
+    <t>setName</t>
+  </si>
+  <si>
+    <t>getName</t>
+  </si>
+  <si>
+    <t>name(string)</t>
+  </si>
+  <si>
+    <t>GUIContext</t>
+  </si>
+  <si>
+    <t>attachWindow</t>
+  </si>
+  <si>
+    <t>detachWindow</t>
+  </si>
+  <si>
+    <t>setContextName</t>
+  </si>
+  <si>
+    <t>getContextName</t>
+  </si>
+  <si>
+    <t>window(GUIWindow)</t>
+  </si>
+  <si>
+    <t>GUIWindow</t>
+  </si>
+  <si>
+    <t>attachComponent</t>
+  </si>
+  <si>
+    <t>component(GUIEntity)</t>
   </si>
 </sst>
 </file>
@@ -590,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N42"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,139 +950,6 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1053,10 +957,468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="A31:B35"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Lua API.xlsx
+++ b/docs/Lua API.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
     <sheet name="GUI Functions" sheetId="3" r:id="rId2"/>
-    <sheet name="Globals" sheetId="2" r:id="rId3"/>
+    <sheet name="RegisteryVariables" sheetId="4" r:id="rId3"/>
+    <sheet name="Globals" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
   <si>
     <t>Protheus Lua API</t>
   </si>
@@ -55,9 +56,6 @@
     <t>main_path</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>screen_width</t>
   </si>
   <si>
@@ -178,12 +176,6 @@
     <t>delta_Y (int)</t>
   </si>
   <si>
-    <t>Engine</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>SpriteEntity</t>
   </si>
   <si>
@@ -281,6 +273,84 @@
   </si>
   <si>
     <t>component(GUIEntity)</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>ACTIVE_SCENE</t>
+  </si>
+  <si>
+    <t>stores a pointer to the active scene</t>
+  </si>
+  <si>
+    <t>Refer to Engine Flowchart</t>
+  </si>
+  <si>
+    <t>SCENES</t>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>RENDERER</t>
+  </si>
+  <si>
+    <t>EVENT_HANDELER</t>
+  </si>
+  <si>
+    <t>SPRITE_MANAGER</t>
+  </si>
+  <si>
+    <t>TIMER</t>
+  </si>
+  <si>
+    <t>stores a pointer to a SceneContainer</t>
+  </si>
+  <si>
+    <t>stores a pointer to a Timer</t>
+  </si>
+  <si>
+    <t>stores a pointer to a SpriteManager</t>
+  </si>
+  <si>
+    <t>stores a pointer to a EventHandeler</t>
+  </si>
+  <si>
+    <t>stores a pointer to a Renderer</t>
+  </si>
+  <si>
+    <t>stores a pointer to a Network</t>
+  </si>
+  <si>
+    <t>stores a pointer to a WindowContainer</t>
+  </si>
+  <si>
+    <t>ACTIVE_WINDOW</t>
+  </si>
+  <si>
+    <t>stores a pointer to the active window</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>SDL_RENDERER</t>
+  </si>
+  <si>
+    <t>Stores a pointer to the SDL_Renderer</t>
+  </si>
+  <si>
+    <t>window_title</t>
+  </si>
+  <si>
+    <t>script_engine_mode</t>
+  </si>
+  <si>
+    <t>SDL_WINDOW</t>
   </si>
 </sst>
 </file>
@@ -627,327 +697,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>6</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>5</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
         <v>46</v>
       </c>
-      <c r="J23" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" t="s">
         <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -959,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,367 +1167,367 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1415,34 +1537,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O13"/>
+  <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1453,14 +1574,11 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1474,61 +1592,354 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
